--- a/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Trial 8 Permutations/Trial 8 Permutation_P-b-constant_Summary.xlsx
+++ b/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Trial 8 Permutations/Trial 8 Permutation_P-b-constant_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdahlqui\Documents\Travel-Conferences\BOSC_ISMB_2025\trial 8 permutations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359BB4F0-59ED-4C8A-BEB4-AB81A299F786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D7B359-AD65-4DD0-A58E-9AFFB80BD43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="787" firstSheet="8" activeTab="17" xr2:uid="{61DF7949-D53D-4105-9735-EE06691314FF}"/>
+    <workbookView xWindow="348" yWindow="372" windowWidth="19296" windowHeight="11328" tabRatio="787" firstSheet="8" activeTab="11" xr2:uid="{61DF7949-D53D-4105-9735-EE06691314FF}"/>
   </bookViews>
   <sheets>
     <sheet name="P and b Constant" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +168,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -205,18 +198,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,6 +626,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -638,7 +634,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1576,41 +1571,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7478D67-BA7D-48FA-92AF-8000621A116E}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B30"/>
+    <sheetView topLeftCell="C1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -1630,7 +1625,7 @@
         <v>1.1901319848181465E-14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8.01</v>
       </c>
@@ -1640,24 +1635,24 @@
       <c r="C3">
         <v>3.671409539096745E-13</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>8.02</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>1.5796560847120545E-12</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>1.6639160401845138E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>8.02</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1.5796560847120545E-12</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>1.6639160401845138E-14</v>
       </c>
       <c r="E4">
@@ -1670,7 +1665,7 @@
         <v>1.4251748872478195E-14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8.0299999999999994</v>
       </c>
@@ -1690,7 +1685,7 @@
         <v>4.0551975856369374E-14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>8.0399999999999991</v>
       </c>
@@ -1710,7 +1705,7 @@
         <v>5.4051368180681699E-14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8.0500000000000007</v>
       </c>
@@ -1730,7 +1725,7 @@
         <v>2.3411111008979175E-14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8.06</v>
       </c>
@@ -1750,7 +1745,7 @@
         <v>7.9893338430313015E-14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8.07</v>
       </c>
@@ -1770,7 +1765,7 @@
         <v>1.0308649639144565E-13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8.08</v>
       </c>
@@ -1790,7 +1785,7 @@
         <v>6.0728075020650797E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8.09</v>
       </c>
@@ -1810,7 +1805,7 @@
         <v>5.1160703546760528E-14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8.1</v>
       </c>
@@ -1830,7 +1825,7 @@
         <v>1.1166205847982524E-13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8.11</v>
       </c>
@@ -1850,7 +1845,7 @@
         <v>4.7916999531260456E-14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>8.1199999999999992</v>
       </c>
@@ -1870,14 +1865,14 @@
         <v>7.0134296043600982E-14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>8.1300000000000008</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>3.724467369690357E-10</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>2.2933183427227778E-13</v>
       </c>
       <c r="E15">
@@ -1890,7 +1885,7 @@
         <v>1.2553290261423606E-10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>8.14</v>
       </c>
@@ -1910,7 +1905,7 @@
         <v>1.1567671473365411E-13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8.15</v>
       </c>
@@ -1930,7 +1925,7 @@
         <v>2.4856886590727061E-13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>8.16</v>
       </c>
@@ -1940,17 +1935,17 @@
       <c r="C18">
         <v>4.8920489063125704E-12</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>8.1300000000000008</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <v>3.724467369690357E-10</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
         <v>2.2933183427227778E-13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8.17</v>
       </c>
@@ -1970,7 +1965,7 @@
         <v>3.1096913704015119E-13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>8.18</v>
       </c>
@@ -1990,7 +1985,7 @@
         <v>1.2209048470176758E-13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8.19</v>
       </c>
@@ -2010,7 +2005,7 @@
         <v>3.671409539096745E-13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -2030,7 +2025,7 @@
         <v>6.6498033152616135E-13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8.2100000000000009</v>
       </c>
@@ -2050,7 +2045,7 @@
         <v>7.5203236058714971E-13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>8.2200000000000006</v>
       </c>
@@ -2070,7 +2065,7 @@
         <v>4.8920489063125704E-12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8.23</v>
       </c>
@@ -2090,7 +2085,7 @@
         <v>1.5002632434756444E-11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2106,7 +2101,7 @@
         <v>3.0595256247713964E-8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2122,7 +2117,7 @@
         <v>7.3428614994513508E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2130,7 +2125,7 @@
         <v>3.0595256247713957E-8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -2152,97 +2147,97 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>7.5203236058714971E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>-0.99999994807640491</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999295727764297</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>1.0000000348244864</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>-1.9999496196266506</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>1.9999799609643962</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2250,92 +2245,92 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>2.9513674605741454E-13</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>-1</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>2.338266631252799E-13</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>1.7271336725787547E-12</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -2349,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -2363,7 +2358,7 @@
         <v>1.2127448534195558E-15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>2.5381820188217051E-9</v>
@@ -2377,8 +2372,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>2.9397488755554232E-9</v>
       </c>
@@ -2393,190 +2388,191 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>6.0728075020650797E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>0.99999812102242303</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.4999944845379432</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>-2.0000001213792435</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1.5802502107792703E-33</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.9999986496491666</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-0.999993305971554</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>5.5721559094821452E-14</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>1.0371024375118004E-13</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>2.27524222159509E-14</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>-1</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -2590,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -2604,7 +2600,7 @@
         <v>1.4732920763568569E-14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>1.8234473731923062E-12</v>
@@ -2618,8 +2614,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>5.0178753864547177E-11</v>
       </c>
@@ -2631,210 +2627,211 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA995C32-351D-49BE-93C9-576C97468297}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2.2933183427227778E-13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>-2.0000003869910259</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="11">
+        <v>2.2933171863831403E-13</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>-2.0000003869909504</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2.4999860494575668</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1.9999961104151636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="11">
+        <v>2.4999860494610187</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1.9999961104162562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>-0.99998121994312672</v>
-      </c>
-      <c r="F5">
-        <v>0.99999788397340483</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12">
+        <v>-0.99998121994800404</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.99999788397339662</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>6.2614471233000223E-14</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11">
+        <v>6.2614435439241186E-14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>-2</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>8.4746712983641508E-14</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11">
+        <v>8.4746679751496026E-14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>5.4063431860019151E-13</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11">
+        <v>5.4063404072420493E-13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>-1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
       </c>
       <c r="F13">
         <f>(F9-F3)^2</f>
-        <v>1.4976205412043784E-13</v>
+        <v>1.497619956885403E-13</v>
       </c>
       <c r="G13">
         <f>(G9-G3)^2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -2845,35 +2842,40 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>1.5128870199834416E-11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5128861699680817E-11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>3.5269053616362697E-10</v>
+        <v>3.5269035297092785E-10</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>4.4775685514538958E-12</v>
+        <v>4.4775685862229651E-12</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
-        <v>3.724467369690357E-10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+        <v>3.7244654525252015E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>45848</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>45853</v>
       </c>
     </row>
   </sheetData>
@@ -2886,190 +2888,191 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1.0308649639144565E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>1.9999995693346591</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.4999919940763737</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>-0.99999999484308388</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.99999757086709595</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-1.9999936418749966</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>1.7505565583005433E-14</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>1.2129404748360543E-13</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>1.7045987610772607E-13</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>-2</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -3083,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -3097,7 +3100,7 @@
         <v>2.6593783831128157E-17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>5.9006866655243723E-12</v>
@@ -3111,8 +3114,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>4.651193945381306E-11</v>
       </c>
@@ -3127,190 +3130,191 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1.2209048470176758E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>-1.9999998459880803</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.499977893859362</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>1.0000004701267902</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2.5284003372468325E-32</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>-0.99997390802897679</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>1.9999908586022477</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>6.679579937470543E-14</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>-2</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>2.9731170172607721E-14</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>2.6974448455798961E-13</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>-1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -3324,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -3338,7 +3342,7 @@
         <v>2.2101919883001471E-13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>6.8079095187614228E-10</v>
@@ -3352,8 +3356,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>7.6460084361251636E-10</v>
       </c>
@@ -3368,190 +3372,191 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2.4856886590727061E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>1.0000001020183449</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.4999778622964044</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>-1.000000130067173</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.9999932426561715</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-1.9999845035260164</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>8.473844564144943E-15</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>4.4758390901248419E-13</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>2.8964884414518283E-13</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>-2</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -3565,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -3579,7 +3584,7 @@
         <v>1.6917469500533396E-14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>4.5661695616426234E-11</v>
@@ -3593,8 +3598,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>2.8582972675233979E-10</v>
       </c>
@@ -3609,97 +3614,97 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1.1166205847982524E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>-1.0000001663807372</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999888327585191</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>1.9999974369322351</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>6.3210008431170812E-33</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>-1.9999922143566311</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.99999819652333555</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3707,92 +3712,92 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>7.4779549163500564E-15</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>-1</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>6.4373317592237259E-14</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>2.6313490293088843E-13</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -3806,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -3820,7 +3825,7 @@
         <v>6.5693163675503299E-12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>6.061624266763564E-11</v>
@@ -3834,8 +3839,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>7.0465769664118056E-11</v>
       </c>
@@ -3850,190 +3855,191 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>4.0551975856369374E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>1.9999973943270692</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.4999963613141638</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>-1.9999998925805875</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>9.8765638173704394E-35</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.99999997038482591</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-0.99999817842312744</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>8.7973448471619609E-14</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>2.8485636608395358E-14</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>5.1968424890931442E-15</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>-1</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -4047,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -4061,7 +4067,7 @@
         <v>1.153893017672379E-14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>8.7705853643050574E-16</v>
@@ -4075,19 +4081,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>1.012008971344051E-11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>45845</v>
       </c>
       <c r="B19" t="s">
@@ -4103,191 +4109,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F142013-565D-4117-8E1E-C10958E38EE8}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1.1901319848181465E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>-1.9999996507163809</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.499998756286824</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>-1.0000000387292676</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.99999952697074079</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>1.9999993227202375</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>1.0950914431620774E-14</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>-2</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>7.4653565808028065E-15</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>1.7287688532120811E-14</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -4301,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -4315,7 +4322,7 @@
         <v>1.4999561665674022E-15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>2.2375668006592594E-13</v>
@@ -4329,8 +4336,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>8.0596355951704047E-13</v>
       </c>
@@ -4345,97 +4352,97 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6.6498033152616135E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>-1.0000001140808554</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999485869197127</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>1.0000008181632811</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.9999633018398129</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-1.9999848185633533</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4443,92 +4450,92 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>8.3188972306650914E-14</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>-1</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>1.266823349608199E-13</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>1.7850696873110133E-12</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>-2</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -4542,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -4556,7 +4563,7 @@
         <v>6.693911545802185E-13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>1.3467549611212079E-9</v>
@@ -4570,8 +4577,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>1.5779133853749478E-9</v>
       </c>
@@ -4586,190 +4593,191 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1.5002632434756444E-11</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>1.0000008250691845</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.498938040523579</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>-1.0000084741364685</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>3.9506255269481758E-34</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>-1.9996153256871638</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>1.9993179119108435</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>1.8765895090823396E-12</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>2.5719015963344073E-11</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>1.7412291831842912E-11</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -4783,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -4797,7 +4805,7 @@
         <v>7.18109888874265E-11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>1.4797432695598356E-7</v>
@@ -4811,8 +4819,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>6.1329098005317547E-7</v>
       </c>
@@ -4827,190 +4835,191 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1.1567671473365411E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>1.0000004471110251</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.4999923750914581</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>1.9999941773804168</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>-1.9999934888258362</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-1.0000089705809012</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>7.0530295806536551E-15</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>2.3203982130039062E-13</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>1.0793729331991805E-13</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>-1</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -5024,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -5038,7 +5047,7 @@
         <v>3.3902898810096121E-11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>4.239538899181639E-11</v>
@@ -5052,8 +5061,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>1.5696951777588024E-10</v>
       </c>
@@ -5068,97 +5077,97 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>4.7916999531260456E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>1.999998937724629</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999933807073238</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>-2.0000000640471973</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1.5802502107792703E-33</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>-0.99999721331365321</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.99999154451714534</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5166,92 +5175,92 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>2.9928964841175575E-14</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>9.3760729510780075E-14</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>2.0061304241825712E-14</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>-1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -5265,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -5279,7 +5288,7 @@
         <v>4.1020434849885411E-15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>7.7656207953834531E-12</v>
@@ -5293,8 +5302,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>8.0393342108209244E-11</v>
       </c>
@@ -5312,14 +5321,14 @@
       <selection activeCell="E9" sqref="E9:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5339,7 +5348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5359,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5379,7 +5388,7 @@
         <v>-2.0000005131985144</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5399,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5407,92 +5416,92 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>2.9883995735849643E-14</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>7.945631156855953E-13</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>1.0846029969900853E-13</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>-1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -5506,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -5520,7 +5529,7 @@
         <v>2.6337271513247107E-13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>4.3906827196153065E-11</v>
@@ -5534,8 +5543,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>5.2308606604132552E-10</v>
       </c>
@@ -5547,210 +5556,211 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210032DC-5CB8-4BC9-A4C1-B2561DEDF703}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1.6639160401845138E-14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>-1.9999996185985232</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="9">
+        <v>1.6639158251028606E-14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>-1.9999996185987539</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2.4999983329219777</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>-1.0000000810489136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="9">
+        <v>2.4999983329220945</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1.000000081048946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>1.9999990031824024</v>
-      </c>
-      <c r="F5">
-        <v>0.99999934123240142</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.9999990031825077</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.99999934123193013</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1.5334269329501436E-14</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1.5334249266355743E-14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>-2</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>4.4837899229183225E-15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9">
+        <v>4.4837888317912724E-15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>3.0099421953115657E-14</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3.0099436654938804E-14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
       </c>
       <c r="F13">
         <f>(F9-F3)^2</f>
-        <v>1.4546708653993684E-13</v>
+        <v>1.4546691055803462E-13</v>
       </c>
       <c r="G13">
         <f>(G9-G3)^2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -5761,35 +5771,40 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>6.5689263925821168E-15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.5689316475535748E-15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>9.9364532283735349E-13</v>
+        <v>9.9364511300896944E-13</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>4.3397474894218209E-13</v>
+        <v>4.3397536988313771E-13</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
-        <v>1.5796560847120545E-12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+        <v>1.5796563250976954E-12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>45848</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>45853</v>
       </c>
     </row>
   </sheetData>
@@ -5802,190 +5817,191 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>3.671409539096745E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>-1.0000001496107005</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.4999722488343386</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>2.0000003233111752</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.99996769922683781</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-1.9999880008075319</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>6.4425389247453776E-14</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>-1</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>1.2161617499458632E-13</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>9.1538129748698332E-13</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>-2</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f t="shared" ref="E13:G15" si="0">(E9-E3)^2</f>
         <v>0</v>
@@ -5999,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6013,7 +6029,7 @@
         <v>1.0453011598688758E-13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>1.0433399468749983E-9</v>
@@ -6027,8 +6043,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>1.1874474802387587E-9</v>
       </c>
@@ -6043,190 +6059,191 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2.3411111008979175E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>1.9999995799741506</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.4999984240088904</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.99999834970933899</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1.5802502107792703E-33</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>-1.9999970443074133</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-1.0000052497257155</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>1.0357139149289085E-14</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>2.6105915827508724E-14</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>3.3770278050139707E-14</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>-1</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f t="shared" ref="E13:G15" si="0">(E9-E3)^2</f>
         <v>0</v>
@@ -6240,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6254,7 +6271,7 @@
         <v>2.7234592658332056E-12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>8.7361186669632664E-12</v>
@@ -6268,8 +6285,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>3.9195619734684774E-11</v>
       </c>
@@ -6284,190 +6301,191 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>7.0134296043600982E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>-0.99999821897839813</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.4999943344666553</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>-2.000000168208492</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>2.0000002942960124</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.99998952488939574</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>5.5955214195838045E-14</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>-1</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>1.0169003510373145E-13</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>5.2757638831233455E-14</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -6481,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -6495,7 +6513,7 @@
         <v>2.8294096789000066E-14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>8.6610142943128521E-14</v>
@@ -6509,8 +6527,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>1.1301488435747694E-10</v>
       </c>
@@ -6525,190 +6543,191 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1.4251748872478195E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>-2.0000000149043133</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.49999872826419</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>1.9999998779030557</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.99999793870307385</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-0.99999973220839966</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>8.5717304098884622E-15</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>-2</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>4.0528437868355909E-15</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>3.0130672420710532E-14</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>-1</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -6722,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -6736,7 +6755,7 @@
         <v>1.490766381539199E-14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>4.2489450177471188E-12</v>
@@ -6750,8 +6769,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>4.3357871613307814E-12</v>
       </c>
@@ -6766,190 +6785,191 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>5.1160703546760528E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>1.9999989266760601</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.499993968713822</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.99999971545320354</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>-1.000004239480133</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-1.9999930645542674</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>2.9587573800575015E-14</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>7.6481424384395114E-17</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>1.2381805541532216E-13</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>-1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>-2</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -6963,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -6977,7 +6997,7 @@
         <v>8.0966879374798943E-14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>1.7973191797681062E-11</v>
@@ -6991,8 +7011,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>6.7306590467006212E-11</v>
       </c>
@@ -7007,190 +7027,191 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1.2553290261423606E-10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="B3" s="2">
+        <v>9.9338734748531102E-14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>-0.99999876719975089</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.499989058904196</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>-2.0000001552094284</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2.5284003372468325E-32</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.0000011839540568</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>1.9999889280864804</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>2.6403090363149513E-14</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>-1</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>1.8911980909747444E-13</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>8.249330478496933E-14</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -7204,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -7218,7 +7239,7 @@
         <v>2.4089966670690584E-14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>1.4017472085983154E-12</v>
@@ -7232,8 +7253,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>1.2553290261423606E-10</v>
       </c>
@@ -7248,190 +7269,191 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>7.9893338430313015E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>-1.9999998644766681</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.499992945221285</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>1.0000004360730419</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.9999934139804041</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-0.99999889743298453</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>3.1949861211209731E-14</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>-2</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>1.8219549835169432E-14</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>1.8951060424455989E-13</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>-1</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -7445,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -7459,7 +7481,7 @@
         <v>1.9015969787053284E-13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>4.3375654117724967E-11</v>
@@ -7473,8 +7495,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>4.4799834412673878E-11</v>
       </c>
@@ -7489,190 +7511,191 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>5.4051368180681699E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>1.0000000789119234</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.4999947313148825</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>1.9999968603185279</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>-1.0000027857572318</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-1.9999964386542002</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>1.7720559914019543E-15</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>5.0121265199172887E-14</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>1.1026078335147025E-13</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>-1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>-2</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -7686,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -7700,7 +7723,7 @@
         <v>9.8575997465106947E-12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>7.7604433544280868E-12</v>
@@ -7714,8 +7737,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>3.0307454098484551E-11</v>
       </c>
@@ -7730,97 +7753,97 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D8" sqref="D8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>4.8920489063125704E-12</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>2.0000012670713829</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4996979109459354</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>-1.000004890522656</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>-1.9998421139257014</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.9997041131237564</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7828,92 +7851,92 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>2.4056753412194058E-13</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>1.0944986497516001E-12</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>1.3341080535064169E-11</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -7927,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="0">(E10-E4)^2</f>
         <v>0</v>
@@ -7941,7 +7964,7 @@
         <v>2.3917211848396321E-11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>2.492801245741144E-8</v>
@@ -7955,8 +7978,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
         <f>SUM(E13:G15)</f>
         <v>1.1250257867234512E-7</v>
       </c>
